--- a/DSU_FOP_Data/Fundamentals_of_program(B3 and B4)_B3 and B4/timestamps.xlsx
+++ b/DSU_FOP_Data/Fundamentals_of_program(B3 and B4)_B3 and B4/timestamps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="100">
   <si>
     <t>Geethesh Chowdary</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Activity4</t>
   </si>
   <si>
-    <t>0:00:00</t>
-  </si>
-  <si>
     <t>2021-05-30T15:11:59.306Z</t>
   </si>
   <si>
@@ -37,9 +34,6 @@
     <t>Activity3</t>
   </si>
   <si>
-    <t>0:03:44</t>
-  </si>
-  <si>
     <t>2021-05-16T13:18:24.866Z</t>
   </si>
   <si>
@@ -55,18 +49,12 @@
     <t>Deepthi S</t>
   </si>
   <si>
-    <t>0:02:27</t>
-  </si>
-  <si>
     <t>2021-05-12T17:52:28.672Z</t>
   </si>
   <si>
     <t>2021-05-12T17:50:01.525Z</t>
   </si>
   <si>
-    <t>0:03:01</t>
-  </si>
-  <si>
     <t>2021-05-12T17:17:47.624Z</t>
   </si>
   <si>
@@ -82,9 +70,6 @@
     <t>Rashmi Auradkar</t>
   </si>
   <si>
-    <t>0:01:22</t>
-  </si>
-  <si>
     <t>2021-05-12T12:47:14.187Z</t>
   </si>
   <si>
@@ -100,9 +85,6 @@
     <t>Khushi Chirchi</t>
   </si>
   <si>
-    <t>0:09:22</t>
-  </si>
-  <si>
     <t>2021-05-12T07:20:26.248Z</t>
   </si>
   <si>
@@ -127,9 +109,6 @@
     <t>Akhilesh Mali</t>
   </si>
   <si>
-    <t>0:02:53</t>
-  </si>
-  <si>
     <t>2021-05-12T06:16:53.554Z</t>
   </si>
   <si>
@@ -145,9 +124,6 @@
     <t>Raqeeb Shaik</t>
   </si>
   <si>
-    <t>0:03:02</t>
-  </si>
-  <si>
     <t>2021-05-11T16:18:36.475Z</t>
   </si>
   <si>
@@ -160,9 +136,6 @@
     <t>2021-05-11T15:57:25.637Z</t>
   </si>
   <si>
-    <t>0:02:24</t>
-  </si>
-  <si>
     <t>2021-05-11T15:54:57.653Z</t>
   </si>
   <si>
@@ -175,18 +148,12 @@
     <t>Abhishek H</t>
   </si>
   <si>
-    <t>0:02:42</t>
-  </si>
-  <si>
     <t>2021-05-11T14:28:01.274Z</t>
   </si>
   <si>
     <t>2021-05-11T14:25:19.232Z</t>
   </si>
   <si>
-    <t>0:01:08</t>
-  </si>
-  <si>
     <t>2021-05-11T14:48:42.169Z</t>
   </si>
   <si>
@@ -208,9 +175,6 @@
     <t>Vandana W M</t>
   </si>
   <si>
-    <t>0:08:38</t>
-  </si>
-  <si>
     <t>2021-05-10T16:51:42.779Z</t>
   </si>
   <si>
@@ -223,9 +187,6 @@
     <t>2021-05-10T16:43:04.824Z</t>
   </si>
   <si>
-    <t>0:43:26</t>
-  </si>
-  <si>
     <t>2021-05-10T16:39:10.250Z</t>
   </si>
   <si>
@@ -289,18 +250,12 @@
     <t>M Adarsh Pryan</t>
   </si>
   <si>
-    <t>0:02:43</t>
-  </si>
-  <si>
     <t>2021-05-10T08:13:21.428Z</t>
   </si>
   <si>
     <t>2021-05-10T08:10:38.708Z</t>
   </si>
   <si>
-    <t>0:03:35</t>
-  </si>
-  <si>
     <t>2021-05-11T09:14:49.248Z</t>
   </si>
   <si>
@@ -331,9 +286,6 @@
     <t>Yukthi Gowda</t>
   </si>
   <si>
-    <t>0:01:23</t>
-  </si>
-  <si>
     <t>2021-05-11T16:18:58.235Z</t>
   </si>
   <si>
@@ -341,9 +293,6 @@
   </si>
   <si>
     <t>Chanaksha AM</t>
-  </si>
-  <si>
-    <t>0:00:20</t>
   </si>
   <si>
     <t>2021-05-10T16:38:24.026Z</t>
@@ -696,13 +645,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -712,552 +661,462 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
+      <c r="G9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="H9" t="s">
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D13" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="E11" t="s">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="E15" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>43</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>44</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
+    <row r="17" spans="1:22">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
         <v>46</v>
       </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="18" spans="1:22">
+      <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>49</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D18" t="s">
         <v>50</v>
       </c>
-      <c r="F15" t="s">
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
+    <row r="20" spans="1:22">
+      <c r="A20" t="s">
         <v>52</v>
       </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>53</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D20" t="s">
         <v>54</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" t="s">
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" t="s">
         <v>52</v>
       </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
         <v>57</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" t="s">
+      <c r="E21" t="s">
         <v>59</v>
       </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="F21" t="s">
         <v>60</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G21" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="H21" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" t="s">
+      <c r="I21" t="s">
         <v>63</v>
       </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="J21" t="s">
         <v>64</v>
       </c>
-      <c r="D20" t="s">
+      <c r="K21" t="s">
         <v>65</v>
       </c>
-      <c r="E20" t="s">
+      <c r="L21" t="s">
         <v>66</v>
       </c>
-      <c r="F20" t="s">
+      <c r="M21" t="s">
         <v>67</v>
       </c>
-      <c r="G20" t="s">
+      <c r="N21" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="O21" t="s">
         <v>69</v>
       </c>
-      <c r="D21" t="s">
+      <c r="P21" t="s">
         <v>70</v>
       </c>
-      <c r="E21" t="s">
+      <c r="Q21" t="s">
         <v>71</v>
       </c>
-      <c r="F21" t="s">
+      <c r="R21" t="s">
         <v>72</v>
       </c>
-      <c r="G21" t="s">
+      <c r="S21" t="s">
         <v>73</v>
       </c>
-      <c r="H21" t="s">
+      <c r="T21" t="s">
         <v>74</v>
       </c>
-      <c r="I21" t="s">
+      <c r="U21" t="s">
         <v>75</v>
       </c>
-      <c r="J21" t="s">
+      <c r="V21" t="s">
         <v>76</v>
       </c>
-      <c r="K21" t="s">
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" t="s">
         <v>77</v>
       </c>
-      <c r="L21" t="s">
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>78</v>
       </c>
-      <c r="M21" t="s">
+      <c r="D22" t="s">
         <v>79</v>
       </c>
-      <c r="N21" t="s">
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
         <v>80</v>
       </c>
-      <c r="O21" t="s">
+      <c r="D23" t="s">
         <v>81</v>
       </c>
-      <c r="P21" t="s">
+      <c r="E23" t="s">
         <v>82</v>
       </c>
-      <c r="Q21" t="s">
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" t="s">
         <v>83</v>
       </c>
-      <c r="R21" t="s">
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>84</v>
       </c>
-      <c r="S21" t="s">
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" t="s">
         <v>85</v>
       </c>
-      <c r="T21" t="s">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
         <v>86</v>
       </c>
-      <c r="U21" t="s">
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" t="s">
         <v>87</v>
       </c>
-      <c r="V21" t="s">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
         <v>88</v>
       </c>
-      <c r="W21" t="s">
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="A22" t="s">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
         <v>90</v>
       </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D27" t="s">
         <v>91</v>
       </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" t="s">
         <v>92</v>
       </c>
-      <c r="E22" t="s">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="A23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D28" t="s">
         <v>94</v>
       </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" t="s">
         <v>95</v>
       </c>
-      <c r="E23" t="s">
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
         <v>96</v>
       </c>
-      <c r="F23" t="s">
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="A24" t="s">
+      <c r="B30" t="s">
         <v>98</v>
       </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C30" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="A25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="A26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="A27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
-      <c r="A28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="A29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
-      <c r="A30" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
